--- a/output.xlsx
+++ b/output.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
   <si>
     <t>Название</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>123</t>
+  </si>
+  <si>
+    <t>null_field</t>
   </si>
   <si>
     <t>data_field</t>
@@ -504,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I22"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="7" max="7" width="20" customWidth="1"/>
@@ -770,7 +773,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -779,14 +782,26 @@
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>35</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22" t="s">
         <v>36</v>
       </c>
+      <c r="H22" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="22">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="B3:E3"/>
@@ -808,6 +823,7 @@
     <mergeCell ref="A19:E19"/>
     <mergeCell ref="A20:E20"/>
     <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A22:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
